--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rtn4-Lingo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rtn4-Lingo1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.66867433333334</v>
+        <v>42.05115733333333</v>
       </c>
       <c r="H2">
-        <v>119.006023</v>
+        <v>126.153472</v>
       </c>
       <c r="I2">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="J2">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +561,22 @@
         <v>1.925872</v>
       </c>
       <c r="O2">
-        <v>0.6216595280819303</v>
+        <v>0.7426786721750401</v>
       </c>
       <c r="P2">
-        <v>0.6216595280819303</v>
+        <v>0.7426786721750401</v>
       </c>
       <c r="Q2">
-        <v>25.46559639189512</v>
+        <v>26.99504882528711</v>
       </c>
       <c r="R2">
-        <v>229.190367527056</v>
+        <v>242.955439427584</v>
       </c>
       <c r="S2">
-        <v>0.09609253442773183</v>
+        <v>0.1184153204238261</v>
       </c>
       <c r="T2">
-        <v>0.09609253442773183</v>
+        <v>0.1184153204238261</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.66867433333334</v>
+        <v>42.05115733333333</v>
       </c>
       <c r="H3">
-        <v>119.006023</v>
+        <v>126.153472</v>
       </c>
       <c r="I3">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="J3">
-        <v>0.154574216411057</v>
+        <v>0.1594435451835853</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.3906936666666667</v>
+        <v>0.2224236666666667</v>
       </c>
       <c r="N3">
-        <v>1.172081</v>
+        <v>0.6672709999999999</v>
       </c>
       <c r="O3">
-        <v>0.3783404719180698</v>
+        <v>0.2573213278249599</v>
       </c>
       <c r="P3">
-        <v>0.3783404719180697</v>
+        <v>0.2573213278249599</v>
       </c>
       <c r="Q3">
-        <v>15.49829982709589</v>
+        <v>9.353172601656887</v>
       </c>
       <c r="R3">
-        <v>139.484698443863</v>
+        <v>84.17855341491199</v>
       </c>
       <c r="S3">
-        <v>0.05848168198332514</v>
+        <v>0.04102822475975915</v>
       </c>
       <c r="T3">
-        <v>0.05848168198332513</v>
+        <v>0.04102822475975915</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.66057933333334</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H4">
         <v>172.981738</v>
       </c>
       <c r="I4">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973147</v>
       </c>
       <c r="J4">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973148</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,22 +685,22 @@
         <v>1.925872</v>
       </c>
       <c r="O4">
-        <v>0.6216595280819303</v>
+        <v>0.7426786721750401</v>
       </c>
       <c r="P4">
-        <v>0.6216595280819303</v>
+        <v>0.7426786721750401</v>
       </c>
       <c r="Q4">
-        <v>37.01563174728178</v>
+        <v>37.01563174728177</v>
       </c>
       <c r="R4">
-        <v>333.140685725536</v>
+        <v>333.1406857255359</v>
       </c>
       <c r="S4">
-        <v>0.1396757340099827</v>
+        <v>0.1623711785969739</v>
       </c>
       <c r="T4">
-        <v>0.1396757340099827</v>
+        <v>0.1623711785969739</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.66057933333334</v>
+        <v>57.66057933333332</v>
       </c>
       <c r="H5">
         <v>172.981738</v>
       </c>
       <c r="I5">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973147</v>
       </c>
       <c r="J5">
-        <v>0.2246820449144221</v>
+        <v>0.2186291119973148</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.3906936666666667</v>
+        <v>0.2224236666666667</v>
       </c>
       <c r="N5">
-        <v>1.172081</v>
+        <v>0.6672709999999999</v>
       </c>
       <c r="O5">
-        <v>0.3783404719180698</v>
+        <v>0.2573213278249599</v>
       </c>
       <c r="P5">
-        <v>0.3783404719180697</v>
+        <v>0.2573213278249599</v>
       </c>
       <c r="Q5">
-        <v>22.52762316186422</v>
+        <v>12.82507747744422</v>
       </c>
       <c r="R5">
-        <v>202.748608456778</v>
+        <v>115.425697296998</v>
       </c>
       <c r="S5">
-        <v>0.08500631090443943</v>
+        <v>0.0562579334003409</v>
       </c>
       <c r="T5">
-        <v>0.08500631090443941</v>
+        <v>0.0562579334003409</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>94.308965</v>
+        <v>99.15200299999999</v>
       </c>
       <c r="H6">
-        <v>282.926895</v>
+        <v>297.456009</v>
       </c>
       <c r="I6">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="J6">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,22 +809,22 @@
         <v>1.925872</v>
       </c>
       <c r="O6">
-        <v>0.6216595280819303</v>
+        <v>0.7426786721750401</v>
       </c>
       <c r="P6">
-        <v>0.6216595280819303</v>
+        <v>0.7426786721750401</v>
       </c>
       <c r="Q6">
-        <v>60.54233168082667</v>
+        <v>63.65135544053867</v>
       </c>
       <c r="R6">
-        <v>544.88098512744</v>
+        <v>572.8621989648479</v>
       </c>
       <c r="S6">
-        <v>0.2284519868235473</v>
+        <v>0.2792102988471654</v>
       </c>
       <c r="T6">
-        <v>0.2284519868235473</v>
+        <v>0.2792102988471654</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>94.308965</v>
+        <v>99.15200299999999</v>
       </c>
       <c r="H7">
-        <v>282.926895</v>
+        <v>297.456009</v>
       </c>
       <c r="I7">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="J7">
-        <v>0.3674873085729315</v>
+        <v>0.3759503393701321</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.3906936666666667</v>
+        <v>0.2224236666666667</v>
       </c>
       <c r="N7">
-        <v>1.172081</v>
+        <v>0.6672709999999999</v>
       </c>
       <c r="O7">
-        <v>0.3783404719180698</v>
+        <v>0.2573213278249599</v>
       </c>
       <c r="P7">
-        <v>0.3783404719180697</v>
+        <v>0.2573213278249599</v>
       </c>
       <c r="Q7">
-        <v>36.84591533538833</v>
+        <v>22.05375206460433</v>
       </c>
       <c r="R7">
-        <v>331.613238018495</v>
+        <v>198.483768581439</v>
       </c>
       <c r="S7">
-        <v>0.1390353217493842</v>
+        <v>0.09674004052296667</v>
       </c>
       <c r="T7">
-        <v>0.1390353217493842</v>
+        <v>0.09674004052296668</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>64.993678</v>
+        <v>64.87322933333333</v>
       </c>
       <c r="H8">
-        <v>194.981034</v>
+        <v>194.619688</v>
       </c>
       <c r="I8">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="J8">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,22 +933,22 @@
         <v>1.925872</v>
       </c>
       <c r="O8">
-        <v>0.6216595280819303</v>
+        <v>0.7426786721750401</v>
       </c>
       <c r="P8">
-        <v>0.6216595280819303</v>
+        <v>0.7426786721750401</v>
       </c>
       <c r="Q8">
-        <v>41.72316821240534</v>
+        <v>41.64584530754844</v>
       </c>
       <c r="R8">
-        <v>375.508513911648</v>
+        <v>374.812607767936</v>
       </c>
       <c r="S8">
-        <v>0.1574392728206685</v>
+        <v>0.1826818743070747</v>
       </c>
       <c r="T8">
-        <v>0.1574392728206685</v>
+        <v>0.1826818743070747</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>64.993678</v>
+        <v>64.87322933333333</v>
       </c>
       <c r="H9">
-        <v>194.981034</v>
+        <v>194.619688</v>
       </c>
       <c r="I9">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="J9">
-        <v>0.2532564301015895</v>
+        <v>0.2459770034489679</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.3906936666666667</v>
+        <v>0.2224236666666667</v>
       </c>
       <c r="N9">
-        <v>1.172081</v>
+        <v>0.6672709999999999</v>
       </c>
       <c r="O9">
-        <v>0.3783404719180698</v>
+        <v>0.2573213278249599</v>
       </c>
       <c r="P9">
-        <v>0.3783404719180697</v>
+        <v>0.2573213278249599</v>
       </c>
       <c r="Q9">
-        <v>25.39261836797267</v>
+        <v>14.42934153682755</v>
       </c>
       <c r="R9">
-        <v>228.533565311754</v>
+        <v>129.864073831448</v>
       </c>
       <c r="S9">
-        <v>0.09581715728092102</v>
+        <v>0.06329512914189314</v>
       </c>
       <c r="T9">
-        <v>0.09581715728092101</v>
+        <v>0.06329512914189316</v>
       </c>
     </row>
   </sheetData>
